--- a/Question_Set2/Programming skills/SQLite (Coding) Entry-Level Database Operations.xlsx
+++ b/Question_Set2/Programming skills/SQLite (Coding) Entry-Level Database Operations.xlsx
@@ -16,23 +16,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'You are working as a backend developer on an application that handles HR data. The database you are working with contains two tables: DEPARTMENTS and EMPLOYEES. Their structure and sample data are shown below.DEPARTMENTS table:Name\tData typePrimary KeyForeign keyDEPT_ID\t\tINTEGER🔑DEPT_NAMEVARCHAR (50)DEPT_ID\tDEPT_NAME10ADMIN20BILLINGEMPLOYEES table:Name\tData type\tPrimary KeyForeign KeyEMP_IDINTEGER\t🔑EMP_NAME\tVARCHAR (50)EMP_DEPTINTEGER🔗EMP_SALARY\tDECIMAL (10, 2)🔗 FOREIGN KEY = (EMP_DEPT) REFERENCES DEPARTMENTS (DEPT_ID)EMP_IDEMP_NAMEEMP_DEPTEMP_SALARY1AARON101002GRAHAM20400Note that the data provided is only sample data. Keep in mind that the full database has more rows of data in it and your queries must return the correct results for all data.You are required to carry out the following tasks: Task 1:In the DEPARTMENTS table, update the department name from ADMIN to ADMINISTRATION.Sample result:DEPT_IDDEPT_NAME10ADMINISTRATION20BILLINGTask 2:Increase the employee salaries in the EMPLOYEES table by 50% for all employees except those currently earning the highest salary.Sample result:EMP_IDEMP_NAMEEMP_DEPTEMP_SALARY1AARON101502GRAHAM20400Task 3:Increase the salary of all employees who are not working in the department with department ID 10 by another $500.Sample result:EMP_IDEMP_NAMEEMP_DEPTEMP_SALARY1AARON101502GRAHAM20900Task 4:Change the salary of all employees who earn less than the average salary to 1200.Sample result:EMP_IDEMP_NAMEEMP_DEPTEMP_SALARY1AARON1012002GRAHAM20800', 'ques_type': None, 'options': [], 'score': None}]</t>
+    <t>questions = [
+    {
+        "title": "You are working as a backend developer on an application that handles HR data. The database you are working with contains two tables: DEPARTMENTS and EMPLOYEES. Their structure and sample data are shown below.DEPARTMENTS table:Name\tData typePrimary KeyForeign keyDEPT_ID\t\tINTEGER\ud83d\udd11DEPT_NAMEVARCHAR (50)DEPT_ID\tDEPT_NAME10ADMIN20BILLINGEMPLOYEES table:Name\tData type\tPrimary KeyForeign KeyEMP_IDINTEGER\t\ud83d\udd11EMP_NAME\tVARCHAR (50)EMP_DEPTINTEGER\ud83d\udd17EMP_SALARY\tDECIMAL (10, 2)\ud83d\udd17 FOREIGN KEY = (EMP_DEPT) REFERENCES DEPARTMENTS (DEPT_ID)EMP_IDEMP_NAMEEMP_DEPTEMP_SALARY1AARON101002GRAHAM20400Note that the data provided is only sample data. Keep in mind that the full database has more rows of data in it and your queries must return the correct results for all data.You are required to carry out the following tasks: Task 1:In the DEPARTMENTS table, update the department name from ADMIN to ADMINISTRATION.Sample result:DEPT_IDDEPT_NAME10ADMINISTRATION20BILLINGTask 2:Increase the employee salaries in the EMPLOYEES table by 50% for all employees except those currently earning the highest salary.Sample result:EMP_IDEMP_NAMEEMP_DEPTEMP_SALARY1AARON101502GRAHAM20400Task 3:Increase the salary of all employees who are not working in the department with department ID 10 by another $500.Sample result:EMP_IDEMP_NAMEEMP_DEPTEMP_SALARY1AARON101502GRAHAM20900Task 4:Change the salary of all employees who earn less than the average salary to 1200.Sample result:EMP_IDEMP_NAMEEMP_DEPTEMP_SALARY1AARON1012002GRAHAM20800",
+        "ques_type": null,
+        "options": [],
+        "score": null
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +47,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +55,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +355,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
